--- a/example_data/clean_Guess_8823_part1_part2_2025-10-08_19h05.56.538.xlsx
+++ b/example_data/clean_Guess_8823_part1_part2_2025-10-08_19h05.56.538.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\teaching_Rburg\WiSe25_26\MemoryEnhancement\example_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\teaching_Rburg\WiSe25_26\MemoryEnhancement\example_data\example_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66263553-07CD-49E0-A6E9-1328AD2A42D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB74A22F-5095-4898-82CC-5E482052330D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E19A0E4F-1043-440F-8427-D6D29F584859}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="261">
   <si>
     <t>trial_type</t>
   </si>
@@ -1681,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09A766E-4EC0-4A95-964C-211A69AD4A22}">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5455,26 +5455,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="J82">
-        <v>8823</v>
-      </c>
-      <c r="K82">
-        <v>1996</v>
-      </c>
-      <c r="L82" t="s">
-        <v>16</v>
-      </c>
-      <c r="M82" t="s">
-        <v>17</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
